--- a/medicine/Psychotrope/Harney_&_Sons/Harney_&_Sons.xlsx
+++ b/medicine/Psychotrope/Harney_&_Sons/Harney_&_Sons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Harney_%26_Sons</t>
+          <t>Harney_&amp;_Sons</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Harney &amp; Sons est une maison de thé américaine créée par John Harney en 1983. Elle est basée à Salisbury, dans le Connecticut.
 Elle est spécialisée dans les thés et tisanes de haute qualité en vrac, et offre plusieurs produits certifiés biologiques ou casher. Outre les thés en vrac, l'entreprise offre des variétés sélectionnées, conditionnées en sachets de soie tétraédriques, et d'autres thés en sachets classiques.
